--- a/2-Empirical-Evidence/raw_data/Hawaii.xlsx
+++ b/2-Empirical-Evidence/raw_data/Hawaii.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Local Area Unemployment Statistics</t>
   </si>
@@ -20,7 +20,7 @@
     <t>Years:</t>
   </si>
   <si>
-    <t>1990 to 2020</t>
+    <t>1990 to 2024</t>
   </si>
   <si>
     <t>Series ID</t>
@@ -148,6 +148,22 @@
   <si>
     <t>Annual
 2020</t>
+  </si>
+  <si>
+    <t>Annual
+2021</t>
+  </si>
+  <si>
+    <t>Annual
+2022</t>
+  </si>
+  <si>
+    <t>Annual
+2023</t>
+  </si>
+  <si>
+    <t>Annual
+2024</t>
   </si>
   <si>
     <t>LAUCN150010000000003</t>
@@ -586,10 +602,22 @@
       <c r="AF4" t="s" s="3">
         <v>34</v>
       </c>
+      <c r="AG4" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="AH4" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="AI4" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="AJ4" t="s" s="3">
+        <v>38</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="7">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B5" t="n" s="10">
         <v>3.8</v>
@@ -684,10 +712,20 @@
       <c r="AF5" t="n" s="10">
         <v>11.4</v>
       </c>
+      <c r="AG5" t="n" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="AH5" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AI5" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AJ5"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="7">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B6" t="n" s="8">
         <v>2192.0</v>
@@ -782,10 +820,20 @@
       <c r="AF6" t="n" s="8">
         <v>10487.0</v>
       </c>
+      <c r="AG6" t="n" s="8">
+        <v>5399.0</v>
+      </c>
+      <c r="AH6" t="n" s="8">
+        <v>3199.0</v>
+      </c>
+      <c r="AI6" t="n" s="8">
+        <v>2861.0</v>
+      </c>
+      <c r="AJ6"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="7">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B7" t="n" s="8">
         <v>56155.0</v>
@@ -880,10 +928,20 @@
       <c r="AF7" t="n" s="8">
         <v>81651.0</v>
       </c>
+      <c r="AG7" t="n" s="8">
+        <v>88505.0</v>
+      </c>
+      <c r="AH7" t="n" s="8">
+        <v>90508.0</v>
+      </c>
+      <c r="AI7" t="n" s="8">
+        <v>92251.0</v>
+      </c>
+      <c r="AJ7"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="7">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B8" t="n" s="8">
         <v>58347.0</v>
@@ -978,10 +1036,20 @@
       <c r="AF8" t="n" s="8">
         <v>92138.0</v>
       </c>
+      <c r="AG8" t="n" s="8">
+        <v>93904.0</v>
+      </c>
+      <c r="AH8" t="n" s="8">
+        <v>93707.0</v>
+      </c>
+      <c r="AI8" t="n" s="8">
+        <v>95112.0</v>
+      </c>
+      <c r="AJ8"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="7">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B9" t="n" s="10">
         <v>2.1</v>
@@ -1076,10 +1144,20 @@
       <c r="AF9" t="n" s="10">
         <v>10.2</v>
       </c>
+      <c r="AG9" t="n" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="AH9" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AI9" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AJ9"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="7">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B10" t="n" s="8">
         <v>8563.0</v>
@@ -1174,10 +1252,20 @@
       <c r="AF10" t="n" s="8">
         <v>46295.0</v>
       </c>
+      <c r="AG10" t="n" s="8">
+        <v>25111.0</v>
+      </c>
+      <c r="AH10" t="n" s="8">
+        <v>14794.0</v>
+      </c>
+      <c r="AI10" t="n" s="8">
+        <v>12389.0</v>
+      </c>
+      <c r="AJ10"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="7">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B11" t="n" s="8">
         <v>400155.0</v>
@@ -1272,10 +1360,20 @@
       <c r="AF11" t="n" s="8">
         <v>405728.0</v>
       </c>
+      <c r="AG11" t="n" s="8">
+        <v>427572.0</v>
+      </c>
+      <c r="AH11" t="n" s="8">
+        <v>440638.0</v>
+      </c>
+      <c r="AI11" t="n" s="8">
+        <v>445151.0</v>
+      </c>
+      <c r="AJ11"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="7">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B12" t="n" s="8">
         <v>408718.0</v>
@@ -1370,10 +1468,20 @@
       <c r="AF12" t="n" s="8">
         <v>452023.0</v>
       </c>
+      <c r="AG12" t="n" s="8">
+        <v>452683.0</v>
+      </c>
+      <c r="AH12" t="n" s="8">
+        <v>455432.0</v>
+      </c>
+      <c r="AI12" t="n" s="8">
+        <v>457540.0</v>
+      </c>
+      <c r="AJ12"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="7">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B13" t="n" s="10">
         <v>3.8</v>
@@ -1468,10 +1576,20 @@
       <c r="AF13" t="n" s="10">
         <v>16.2</v>
       </c>
+      <c r="AG13" t="n" s="10">
+        <v>8.1</v>
+      </c>
+      <c r="AH13" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AI13" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AJ13"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="7">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B14" t="n" s="8">
         <v>1001.0</v>
@@ -1566,10 +1684,20 @@
       <c r="AF14" t="n" s="8">
         <v>5891.0</v>
       </c>
+      <c r="AG14" t="n" s="8">
+        <v>2920.0</v>
+      </c>
+      <c r="AH14" t="n" s="8">
+        <v>1235.0</v>
+      </c>
+      <c r="AI14" t="n" s="8">
+        <v>953.0</v>
+      </c>
+      <c r="AJ14"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="7">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B15" t="n" s="8">
         <v>25111.0</v>
@@ -1664,10 +1792,20 @@
       <c r="AF15" t="n" s="8">
         <v>30567.0</v>
       </c>
+      <c r="AG15" t="n" s="8">
+        <v>33295.0</v>
+      </c>
+      <c r="AH15" t="n" s="8">
+        <v>35256.0</v>
+      </c>
+      <c r="AI15" t="n" s="8">
+        <v>35910.0</v>
+      </c>
+      <c r="AJ15"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="7">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B16" t="n" s="8">
         <v>26112.0</v>
@@ -1762,10 +1900,20 @@
       <c r="AF16" t="n" s="8">
         <v>36458.0</v>
       </c>
+      <c r="AG16" t="n" s="8">
+        <v>36215.0</v>
+      </c>
+      <c r="AH16" t="n" s="8">
+        <v>36491.0</v>
+      </c>
+      <c r="AI16" t="n" s="8">
+        <v>36863.0</v>
+      </c>
+      <c r="AJ16"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="7">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B17" t="n" s="10">
         <v>4.5</v>
@@ -1860,10 +2008,20 @@
       <c r="AF17" t="n" s="10">
         <v>17.7</v>
       </c>
+      <c r="AG17" t="n" s="10">
+        <v>7.6</v>
+      </c>
+      <c r="AH17" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AI17" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AJ17"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="7">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B18" t="n" s="8">
         <v>2570.0</v>
@@ -1958,10 +2116,20 @@
       <c r="AF18" t="n" s="8">
         <v>15131.0</v>
       </c>
+      <c r="AG18" t="n" s="8">
+        <v>6613.0</v>
+      </c>
+      <c r="AH18" t="n" s="8">
+        <v>2828.0</v>
+      </c>
+      <c r="AI18" t="n" s="8">
+        <v>3817.0</v>
+      </c>
+      <c r="AJ18"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="7">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B19" t="n" s="8">
         <v>54736.0</v>
@@ -2056,10 +2224,20 @@
       <c r="AF19" t="n" s="8">
         <v>70212.0</v>
       </c>
+      <c r="AG19" t="n" s="8">
+        <v>80779.0</v>
+      </c>
+      <c r="AH19" t="n" s="8">
+        <v>84270.0</v>
+      </c>
+      <c r="AI19" t="n" s="8">
+        <v>83025.0</v>
+      </c>
+      <c r="AJ19"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="7">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B20" t="n" s="8">
         <v>57306.0</v>
@@ -2154,6 +2332,16 @@
       <c r="AF20" t="n" s="8">
         <v>85343.0</v>
       </c>
+      <c r="AG20" t="n" s="8">
+        <v>87392.0</v>
+      </c>
+      <c r="AH20" t="n" s="8">
+        <v>87098.0</v>
+      </c>
+      <c r="AI20" t="n" s="8">
+        <v>86842.0</v>
+      </c>
+      <c r="AJ20"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2164,7 +2352,7 @@
   <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddHeader>&amp;CBureau of Labor Statistics</oddHeader>
-    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: December 27, 2024 (12:59:28 AM)</oddFooter>
+    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: January 5, 2025 (02:29:00 PM)</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
